--- a/Celda Robotizada/Análisis de celda robotizada_Orientación y Clasificación.xlsx
+++ b/Celda Robotizada/Análisis de celda robotizada_Orientación y Clasificación.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f7a54f46950a5e5/Documentos/Cosas de Sebastian/APM/Esdek/Celda Robotizada/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_946C5EB4D1BAAFF90EDED706374B8C04D5143F8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8519062C-19D4-4923-8806-EA929A357C7B}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja de trabajo para orientació" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Clasificación de partes" sheetId="2" r:id="rId5"/>
+    <sheet name="Hoja de trabajo para orientació" sheetId="1" r:id="rId1"/>
+    <sheet name="Clasificación de partes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -206,32 +215,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -242,7 +256,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -252,183 +266,215 @@
     </fill>
   </fills>
   <borders count="13">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -618,264 +664,267 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="3.13"/>
-    <col customWidth="1" min="3" max="3" width="19.63"/>
-    <col customWidth="1" min="4" max="4" width="13.0"/>
-    <col customWidth="1" min="5" max="5" width="21.75"/>
-    <col customWidth="1" min="6" max="6" width="15.25"/>
-    <col customWidth="1" min="7" max="7" width="19.38"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="E3" s="20"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="E4" s="20"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11">
-        <v>45017.0</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="7"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="7"/>
-      <c r="C7" s="12" t="s">
+      <c r="D5" s="24">
+        <v>45017</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="7"/>
-      <c r="C8" s="14" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="7"/>
-      <c r="C9" s="12" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="7"/>
-      <c r="C10" s="12" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="19" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="13" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="20" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="23" t="s">
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" ht="46.5" customHeight="1">
-      <c r="B15" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="C15" s="24" t="s">
+    <row r="15" spans="2:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="C16" s="23" t="s">
+    <row r="16" spans="2:10" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="22">
-        <v>4.0</v>
-      </c>
-      <c r="C17" s="23" t="s">
+    <row r="17" spans="2:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="14">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="C18" s="23" t="s">
+    <row r="18" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B18" s="14">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -891,302 +940,305 @@
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D9:J9"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="4.13"/>
-    <col customWidth="1" min="3" max="3" width="16.88"/>
-    <col customWidth="1" min="4" max="4" width="14.38"/>
-    <col customWidth="1" min="5" max="5" width="20.13"/>
-    <col customWidth="1" min="6" max="6" width="17.5"/>
-    <col customWidth="1" min="7" max="7" width="15.88"/>
-    <col customWidth="1" min="9" max="9" width="16.38"/>
-    <col customWidth="1" min="10" max="10" width="19.63"/>
+    <col min="1" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="G3" s="20"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="G4" s="20"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="11">
-        <v>45017.0</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="12" t="s">
+      <c r="F5" s="24">
+        <v>45017</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="7"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="7"/>
-      <c r="C7" s="26" t="s">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="7"/>
-      <c r="C8" s="14" t="s">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="7"/>
-      <c r="C9" s="12" t="s">
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="7"/>
-      <c r="C10" s="12" t="s">
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="7"/>
-      <c r="C11" s="12" t="s">
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="7"/>
-      <c r="C12" s="12" t="s">
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="7"/>
-      <c r="C13" s="12" t="s">
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="7"/>
-      <c r="C14" s="12" t="s">
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="7"/>
-      <c r="C15" s="12" t="s">
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="7"/>
-      <c r="C16" s="12" t="s">
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="7"/>
-      <c r="C17" s="12" t="s">
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1195,6 +1247,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Celda Robotizada/Análisis de celda robotizada_Orientación y Clasificación.xlsx
+++ b/Celda Robotizada/Análisis de celda robotizada_Orientación y Clasificación.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f7a54f46950a5e5/Documentos/Cosas de Sebastian/APM/Esdek/Celda Robotizada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_946C5EB4D1BAAFF90EDED706374B8C04D5143F8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8519062C-19D4-4923-8806-EA929A357C7B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_946C5EB4D1BAAFF90EDED706374B8C04D5143F8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4DD7CE9-A007-4DFD-ACC7-4145A1FB0183}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,6 +471,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -961,13 +965,13 @@
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -992,7 +996,7 @@
       <c r="G3" s="20"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="E4" s="5" t="s">
         <v>3</v>
@@ -1003,7 +1007,7 @@
       <c r="G4" s="20"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="E5" s="5" t="s">
         <v>5</v>
@@ -1017,7 +1021,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="I6" s="6"/>
     </row>

--- a/Celda Robotizada/Análisis de celda robotizada_Orientación y Clasificación.xlsx
+++ b/Celda Robotizada/Análisis de celda robotizada_Orientación y Clasificación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f7a54f46950a5e5/Documentos/Cosas de Sebastian/APM/Esdek/Celda Robotizada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_946C5EB4D1BAAFF90EDED706374B8C04D5143F8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4DD7CE9-A007-4DFD-ACC7-4145A1FB0183}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_946C5EB4D1BAAFF90EDED706374B8C04D5143F8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{296F4494-41A5-4794-90F9-30D028DBF9BF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de trabajo para orientació" sheetId="1" r:id="rId1"/>
@@ -50,15 +50,9 @@
     <t>2. Aspectos a mejorar</t>
   </si>
   <si>
-    <t>Configuración espacial óptima de la planta. Reducción de tiempos de operación con automatización. Optimizar la operación de taladrado.</t>
-  </si>
-  <si>
     <t>3. Problemas</t>
   </si>
   <si>
-    <t>Los tiempos de operación automática menores a 6s para el proceso de taladrado, requerimientos físicos del robot y su instalación y alta demanda de producción,</t>
-  </si>
-  <si>
     <t>4. Alcance</t>
   </si>
   <si>
@@ -95,15 +89,9 @@
     <t>Realizar jornadas de capacitación pagas en horarios extralaborales.</t>
   </si>
   <si>
-    <t>Adecuaciones estructurales para la instalación del robot.</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>Diseñar y realizar las obras necesarias para colocar el robot</t>
-  </si>
-  <si>
     <t>Externo y Áea Administrativa</t>
   </si>
   <si>
@@ -137,15 +125,9 @@
     <t>Calcular y optimizar los tiempos de operación y mantenimiento para obtener la mayor disponibilidad posible.</t>
   </si>
   <si>
-    <t>Costo de adquisición del robot</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
-    <t>Adquirir un robot nuevo o de segunda mano en el menor precio posible,</t>
-  </si>
-  <si>
     <t>Área de Planta y Área de Administrativa</t>
   </si>
   <si>
@@ -210,6 +192,24 @@
   </si>
   <si>
     <t>Mesa</t>
+  </si>
+  <si>
+    <t>Los tiempos de operación automática menores a 6s/agujero para el proceso de taladrado, requerimientos físicos del robot y su instalación y alta demanda de producción.</t>
+  </si>
+  <si>
+    <t>Configuración espacial óptima de la planta. Reducción de tiempos de operación con automatización. Optimizar la operación de taladrado y empacado.</t>
+  </si>
+  <si>
+    <t>Adecuaciones estructurales para la instalación del robot(s).</t>
+  </si>
+  <si>
+    <t>Diseñar y realizar las obras necesarias para colocar el robot(s)</t>
+  </si>
+  <si>
+    <t>Costo de adquisición del robot(s)</t>
+  </si>
+  <si>
+    <t>Adquirir un robot(s) nuevo o de segunda mano en el menor precio posible, buscando la mejor proporción calidad/precio.</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -455,7 +455,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,10 +682,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -689,7 +697,10 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -744,63 +755,63 @@
     </row>
     <row r="7" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
@@ -815,20 +826,20 @@
     </row>
     <row r="13" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="H13" s="13"/>
     </row>
@@ -837,19 +848,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -857,19 +868,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="127.5" x14ac:dyDescent="0.2">
@@ -877,19 +888,19 @@
         <v>3</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="76.5" x14ac:dyDescent="0.2">
@@ -897,39 +908,39 @@
         <v>4</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B18" s="14">
         <v>5</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -945,6 +956,7 @@
     <mergeCell ref="D9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -955,8 +967,8 @@
   </sheetPr>
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -967,7 +979,7 @@
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -984,7 +996,7 @@
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="5" t="s">
@@ -1017,7 +1029,7 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7"/>
     </row>
@@ -1028,32 +1040,32 @@
     <row r="7" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -1066,13 +1078,13 @@
     <row r="9" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7">
         <v>2</v>
@@ -1085,13 +1097,13 @@
     <row r="10" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7">
         <v>2</v>
@@ -1101,16 +1113,16 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7">
         <v>3</v>
@@ -1123,13 +1135,13 @@
     <row r="12" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F12" s="7">
         <v>3</v>
@@ -1142,13 +1154,13 @@
     <row r="13" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7">
         <v>3</v>
@@ -1161,13 +1173,13 @@
     <row r="14" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7">
         <v>3</v>
@@ -1180,13 +1192,13 @@
     <row r="15" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
@@ -1199,13 +1211,13 @@
     <row r="16" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
@@ -1218,13 +1230,13 @@
     <row r="17" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7">
         <v>2</v>
